--- a/UART_command_list.xlsx
+++ b/UART_command_list.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="22116" windowHeight="9552" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22110" windowHeight="9555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Registres" sheetId="1" r:id="rId1"/>
     <sheet name="Commands" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Byte 0</t>
   </si>
@@ -85,14 +85,67 @@
   </si>
   <si>
     <t>0xCE</t>
+  </si>
+  <si>
+    <t>Write command</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>Data(8bits)</t>
+  </si>
+  <si>
+    <t>Response Read OK</t>
+  </si>
+  <si>
+    <t>0x4F</t>
+  </si>
+  <si>
+    <t>0x4B</t>
+  </si>
+  <si>
+    <t>Data(Reg @)</t>
+  </si>
+  <si>
+    <t>0x21</t>
+  </si>
+  <si>
+    <t>Response Read/Write KO</t>
+  </si>
+  <si>
+    <t>Response Write OK</t>
+  </si>
+  <si>
+    <t>Commands Ext (Tx) =&gt; FPGA (Rx uart)</t>
+  </si>
+  <si>
+    <t>Responses FPGA (Tx uart) =&gt; Ext (Rx)</t>
+  </si>
+  <si>
+    <t>Read response : "OK" en ASCII + DATA en hexa</t>
+  </si>
+  <si>
+    <t>Registre pas présent dans la liste : réponse : "KO!" En ASCII</t>
+  </si>
+  <si>
+    <t>Write response : "OK!" en ASCII</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -116,13 +169,374 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -214,7 +628,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -249,7 +662,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,22 +837,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="1"/>
-    <col min="3" max="3" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="2" width="11.5703125" style="1"/>
+    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:5">
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
@@ -448,7 +860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:5">
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
@@ -456,7 +868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:5">
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
@@ -464,15 +876,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
+    <row r="10" spans="4:5">
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7">
       <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
@@ -486,7 +898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7">
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
@@ -503,68 +915,167 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7">
       <c r="D24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.5703125" style="1"/>
+    <col min="6" max="6" width="53.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
+    <row r="3" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:6" ht="15.75" thickBot="1">
+      <c r="C4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" thickBot="1">
+      <c r="C5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:6">
+      <c r="B6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
+      <c r="E6" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1">
+      <c r="C10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" thickBot="1">
+      <c r="C11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C10:E10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UART_command_list.xlsx
+++ b/UART_command_list.xlsx
@@ -78,9 +78,6 @@
     <t>Read command</t>
   </si>
   <si>
-    <t>Reg @</t>
-  </si>
-  <si>
     <t>Cmd_end</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>0x4B</t>
   </si>
   <si>
-    <t>Data(Reg @)</t>
-  </si>
-  <si>
     <t>0x21</t>
   </si>
   <si>
@@ -117,19 +111,25 @@
     <t>Response Write OK</t>
   </si>
   <si>
-    <t>Commands Ext (Tx) =&gt; FPGA (Rx uart)</t>
-  </si>
-  <si>
-    <t>Responses FPGA (Tx uart) =&gt; Ext (Rx)</t>
-  </si>
-  <si>
     <t>Read response : "OK" en ASCII + DATA en hexa</t>
   </si>
   <si>
-    <t>Registre pas présent dans la liste : réponse : "KO!" En ASCII</t>
-  </si>
-  <si>
     <t>Write response : "OK!" en ASCII</t>
+  </si>
+  <si>
+    <t>@Reg</t>
+  </si>
+  <si>
+    <t>Data(@Reg)</t>
+  </si>
+  <si>
+    <t>Commands Ext (Tx) =&gt; FPGA (Rx_uart_i)</t>
+  </si>
+  <si>
+    <t>Responses FPGA (Tx_uart_o) =&gt; Ext (Rx)</t>
+  </si>
+  <si>
+    <t>Registre pas présent dans la liste/Mauvaise RW command : réponse : "KO!" En ASCII</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -521,6 +521,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,13 +539,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -878,10 +884,10 @@
     </row>
     <row r="10" spans="4:5">
       <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" spans="3:7">
@@ -931,25 +937,27 @@
   <dimension ref="B3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1"/>
     <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.5703125" style="1"/>
-    <col min="6" max="6" width="53.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="76.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1">
       <c r="C5" s="7" t="s">
@@ -969,34 +977,34 @@
       <c r="C6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>20</v>
+      <c r="D6" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1">
       <c r="B7" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>20</v>
+      <c r="D7" s="25" t="s">
+        <v>33</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
+      <c r="C10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickBot="1">
       <c r="C11" s="4" t="s">
@@ -1011,53 +1019,53 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>30</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1">
       <c r="B14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/UART_command_list.xlsx
+++ b/UART_command_list.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22110" windowHeight="9555" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22110" windowHeight="9555"/>
   </bookViews>
   <sheets>
-    <sheet name="Registres" sheetId="1" r:id="rId1"/>
-    <sheet name="Commands" sheetId="2" r:id="rId2"/>
+    <sheet name="Commands" sheetId="2" r:id="rId1"/>
+    <sheet name="Registres" sheetId="1" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -530,6 +530,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,12 +543,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,6 +557,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>677161</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr="wavedrom_uart_rd_command.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="3609975"/>
+          <a:ext cx="14650336" cy="1085849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2" descr="wavedrom_uart_wr_command.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="5004210"/>
+          <a:ext cx="14859000" cy="1101314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -844,6 +925,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" style="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="76.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:6" ht="15.75" thickBot="1">
+      <c r="C4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" thickBot="1">
+      <c r="C5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1">
+      <c r="C10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" thickBot="1">
+      <c r="C11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" thickBot="1">
+      <c r="B14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C10:E10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -932,151 +1159,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:F14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" style="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="76.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5703125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C10" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C10:E10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>

--- a/UART_command_list.xlsx
+++ b/UART_command_list.xlsx
@@ -928,7 +928,7 @@
   <dimension ref="B3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>

--- a/UART_command_list.xlsx
+++ b/UART_command_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22110" windowHeight="9555"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22110" windowHeight="9555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Byte 0</t>
   </si>
@@ -130,6 +130,21 @@
   </si>
   <si>
     <t>Registre pas présent dans la liste/Mauvaise RW command : réponse : "KO!" En ASCII</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>8 bits</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>reg_cmd_ws2812_led0</t>
+  </si>
+  <si>
+    <t>reg_sel_config_ws2812_led0</t>
   </si>
 </sst>
 </file>
@@ -927,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1071,17 +1086,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:G24"/>
+  <dimension ref="C5:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="11.5703125" style="1"/>
     <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
@@ -1131,25 +1146,53 @@
         <v>13</v>
       </c>
     </row>
+    <row r="22" spans="3:7">
+      <c r="D22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="3:7">
-      <c r="D24" s="1" t="s">
+    <row r="33" spans="4:4">
+      <c r="D33" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/UART_command_list.xlsx
+++ b/UART_command_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>Byte 0</t>
   </si>
@@ -145,13 +145,49 @@
   </si>
   <si>
     <t>reg_sel_config_ws2812_led0</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>leds reset_gen</t>
+  </si>
+  <si>
+    <t>en_start led</t>
+  </si>
+  <si>
+    <t>Selection of the led config</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +196,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <strike/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -483,81 +534,102 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -959,81 +1031,81 @@
   <sheetData>
     <row r="3" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickBot="1">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1041,16 +1113,16 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1058,16 +1130,16 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1086,117 +1158,184 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:G33"/>
+  <dimension ref="D2:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" style="1"/>
-    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="2" width="11.5703125" style="25"/>
+    <col min="3" max="3" width="27.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="11.5703125" style="25"/>
+    <col min="14" max="14" width="14.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.5703125" style="25"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:5">
-      <c r="D5" s="1" t="s">
+    <row r="2" spans="4:15" ht="16.5" thickBot="1"/>
+    <row r="3" spans="4:15" s="28" customFormat="1" ht="18.75">
+      <c r="D3" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="4:15">
+      <c r="D4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+    </row>
+    <row r="5" spans="4:15">
+      <c r="D5" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="18:22">
+      <c r="R18" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="S18" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="4:5">
-      <c r="D6" s="1" t="s">
+    <row r="19" spans="18:22">
+      <c r="R19" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="S19" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="4:5">
-      <c r="D7" s="1" t="s">
+    <row r="20" spans="18:22">
+      <c r="R20" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="S20" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="4:5">
-      <c r="D10" s="2" t="s">
+    <row r="23" spans="18:22">
+      <c r="R23" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="S23" s="26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="3:7">
-      <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="D22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="D23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7">
-      <c r="C32" s="1" t="s">
+    <row r="27" spans="18:22">
+      <c r="R27" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="S27" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="T27" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="U27" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="V27" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
-      <c r="D33" s="1" t="s">
+    <row r="28" spans="18:22">
+      <c r="S28" s="25" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H4:O4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
